--- a/data/trans_dic/P55_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede irse de vacaciones al menos una semana al año</t>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 98,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>71,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>62,88%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36,77%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>52,17%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52,76%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,6; 65,81</t>
+          <t>18,47; 60,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,91; 79,02</t>
+          <t>50,89; 89,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,15; 70,21</t>
+          <t>49,52; 75,56</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22,43; 52,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34,79; 64,38</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40,05; 70,99</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>64,92%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>63,86%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>69,15%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>68,86%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,96; 77,61</t>
+          <t>61,22; 81,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,49; 62,2</t>
+          <t>58,31; 81,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,69; 69,02</t>
+          <t>57,71; 71,93</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56,51; 70,62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>62,2; 74,89</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60,63; 73,91</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,1%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,68%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,77%</t>
+          <t>84,63%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>89,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>85,2%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90,2%</t>
         </is>
       </c>
     </row>
@@ -679,24 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,7; 91,39</t>
+          <t>77,87; 91,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,2; 86,26</t>
+          <t>84,47; 95,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,66; 87,34</t>
+          <t>77,99; 90,09</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>83,74; 93,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80,63; 89,2</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>86,45; 93,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,7; 77,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,84; 70,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,84; 72,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>72,87%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>79,4%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>67,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72,68%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61,88; 79,53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70,84; 84,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68,35; 77,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>61,7; 73,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>66,8; 76,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68,39; 77,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 98,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46031</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127385</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>74545</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>77448</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>120577</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>204833</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20793; 67997</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>90399; 159495</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>58704; 89576</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>47243; 109507</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>80405; 148799</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>155505; 275601</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>288197</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>370481</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>236523</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>314517</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>524720</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>684997</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>241499; 319686</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>292876; 410248</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>210263; 262059</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>278326; 347777</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>471966; 568272</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>603110; 735240</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>232750</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>322511</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>272492</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>353530</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>505242</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>676041</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>211052; 248485</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>298428; 336823</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>251127; 290079</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>331796; 370890</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>478162; 528993</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>647953; 698903</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>566978</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>820376</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>583561</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>745495</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1150539</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1565871</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>481481; 618818</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>731906; 872832</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>550116; 622503</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>678278; 802868</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1057426; 1209453</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1458361; 1648739</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>